--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,87 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,34 +127,31 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>powerful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>first</t>
   </si>
   <si>
     <t>social</t>
@@ -524,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -643,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9444444444444444</v>
@@ -693,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -743,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>0.6666666666666666</v>
@@ -893,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8653846153846154</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,16 +1005,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.4933333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.4827586206896552</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.3157894736842105</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.675</v>
       </c>
       <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.2222222222222222</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1185,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.1818181818181818</v>
+        <v>0.04189435336976321</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,13 +1234,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1261,31 +1252,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16">
-        <v>0.04462659380692167</v>
-      </c>
-      <c r="L16">
-        <v>49</v>
-      </c>
-      <c r="M16">
-        <v>49</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1049</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1293,13 +1260,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5294117647058824</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1311,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1319,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1345,13 +1312,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1363,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1371,13 +1338,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1397,13 +1364,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4117647058823529</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1415,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1423,13 +1390,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1441,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1449,25 +1416,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3829787234042553</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>18</v>
-      </c>
-      <c r="D23">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1475,13 +1442,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3478260869565217</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1493,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1501,13 +1468,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3428571428571429</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1519,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1527,13 +1494,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1545,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1553,13 +1520,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3076923076923077</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1571,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1579,13 +1546,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2916666666666667</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1597,59 +1564,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="C29">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
